--- a/98_レビュー/テンプレ/レビューテンプレ(issueに直すこと).xlsx
+++ b/98_レビュー/テンプレ/レビューテンプレ(issueに直すこと).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CardGame\CardGame_Document\98_レビュー\テンプレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB2113C-9218-46F8-8EE2-0B5341680C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EF5A51-6031-46EB-BBCD-A32A951AE76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,10 +379,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -406,11 +404,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF00B050"/>
@@ -429,36 +433,6 @@
     <dxf>
       <font>
         <color rgb="FF92D050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
       </font>
     </dxf>
   </dxfs>
@@ -746,6 +720,7 @@
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="48.5" customWidth="1"/>
     <col min="6" max="6" width="48.5" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -762,266 +737,266 @@
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1"/>
     <row r="4" spans="1:7">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="6"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="9">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="6"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <f t="shared" ref="A7:A24" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="6"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="6"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="6"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="6"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="15"/>
     </row>
     <row r="12" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="6"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="6"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="15"/>
     </row>
     <row r="14" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A14" s="11">
+      <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="6"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="6"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A16" s="11">
+      <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="6"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="6"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A18" s="11">
+      <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="6"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A20" s="11">
+      <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="6"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="15"/>
     </row>
     <row r="21" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="6"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="15"/>
     </row>
     <row r="22" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A22" s="11">
+      <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="6"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="15"/>
     </row>
     <row r="23" spans="1:7" ht="50.25" customHeight="1">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="6"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="50.25" customHeight="1" thickBot="1">
-      <c r="A24" s="12">
+      <c r="A24" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="8"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
